--- a/Scrum Board/Work Updates.xlsx
+++ b/Scrum Board/Work Updates.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
-  <si>
-    <t>Day</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>BackEnd</t>
   </si>
@@ -58,9 +55,6 @@
     <t>Saurav</t>
   </si>
   <si>
-    <t>26/09/2020</t>
-  </si>
-  <si>
     <t>1. Admin Component</t>
   </si>
   <si>
@@ -94,10 +88,79 @@
     <t>3. Remove Question Set WebAPI</t>
   </si>
   <si>
-    <t>4. SQL Queries</t>
-  </si>
-  <si>
     <t>Meeting Setup, Resolved*</t>
+  </si>
+  <si>
+    <t>28/09/2020</t>
+  </si>
+  <si>
+    <t>26-27/09/2020</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>2. AuthGuards</t>
+  </si>
+  <si>
+    <t>2. Search filter for report</t>
+  </si>
+  <si>
+    <t>1. Upload Controller Bug</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>4. Database Modification</t>
+  </si>
+  <si>
+    <t>1. Report Controller</t>
+  </si>
+  <si>
+    <t>1. Question Fetched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Result Insertion </t>
+  </si>
+  <si>
+    <t>1. Report Controller Bug</t>
+  </si>
+  <si>
+    <t>Yogesh</t>
+  </si>
+  <si>
+    <t>Saurav,Ajay and Sonali</t>
+  </si>
+  <si>
+    <t>2. Timer</t>
+  </si>
+  <si>
+    <t>3. Single Report</t>
+  </si>
+  <si>
+    <t>4. Graphs, Pie Chart</t>
+  </si>
+  <si>
+    <t>4.Save As PDF</t>
+  </si>
+  <si>
+    <t>1. Basic Test implemented</t>
+  </si>
+  <si>
+    <t>2. Made SQL Queries Dynamic</t>
+  </si>
+  <si>
+    <t>BackUp Done and Uploaded</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1. Admin DashBoard and Report</t>
+  </si>
+  <si>
+    <t>3. Questions Prepared</t>
   </si>
 </sst>
 </file>
@@ -575,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,34 +649,34 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -624,31 +687,33 @@
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -657,10 +722,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -669,60 +734,62 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -731,10 +798,10 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -743,30 +810,180 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Scrum Board/Work Updates.xlsx
+++ b/Scrum Board/Work Updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>BackEnd</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Saurav Tiwari</t>
   </si>
   <si>
-    <t>Saurav</t>
-  </si>
-  <si>
     <t>1. Admin Component</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>29/09/2020</t>
   </si>
   <si>
-    <t>2. AuthGuards</t>
-  </si>
-  <si>
     <t>2. Search filter for report</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Saurav,Ajay and Sonali</t>
   </si>
   <si>
-    <t>2. Timer</t>
-  </si>
-  <si>
     <t>3. Single Report</t>
   </si>
   <si>
@@ -161,6 +152,72 @@
   </si>
   <si>
     <t>3. Questions Prepared</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
+  </si>
+  <si>
+    <t>1. Debugged and Tested Each Controller</t>
+  </si>
+  <si>
+    <t>2. Made Questions Shuffles</t>
+  </si>
+  <si>
+    <t>1. Coloring to buttons</t>
+  </si>
+  <si>
+    <t>2. Authguards</t>
+  </si>
+  <si>
+    <t>3.Paginator added</t>
+  </si>
+  <si>
+    <t>1. All Controller Bugs Fixed</t>
+  </si>
+  <si>
+    <t>4. Added Security Features to Test</t>
+  </si>
+  <si>
+    <t>1. Arranged All DataBase Queries</t>
+  </si>
+  <si>
+    <t>2. FrontEnd BackEnd Testing Ran</t>
+  </si>
+  <si>
+    <t>Cleansed CSV file data, Resolved*</t>
+  </si>
+  <si>
+    <t>Sonali*</t>
+  </si>
+  <si>
+    <t>Runtime Error Fixed, Ajay*</t>
+  </si>
+  <si>
+    <t>Ajay*</t>
+  </si>
+  <si>
+    <t>2. Student DashBoard and Report</t>
+  </si>
+  <si>
+    <t>2. Necessary Filter</t>
+  </si>
+  <si>
+    <t>1. UI to Test Page, and Test</t>
+  </si>
+  <si>
+    <t>2. Secure Timer</t>
+  </si>
+  <si>
+    <t>CSVtoSQL library issues, Resolved*</t>
+  </si>
+  <si>
+    <t>Yogesh*</t>
+  </si>
+  <si>
+    <t>Saurav*</t>
+  </si>
+  <si>
+    <t>Shifted from discord to Gmeet*</t>
   </si>
 </sst>
 </file>
@@ -319,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -333,6 +390,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -638,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +711,7 @@
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -659,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -668,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -702,9 +762,11 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -742,28 +804,28 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,24 +834,26 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -798,10 +862,10 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -810,10 +874,10 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -824,22 +888,22 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,27 +912,29 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -877,7 +943,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -887,7 +953,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -898,22 +964,22 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -922,13 +988,13 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -936,13 +1002,13 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -951,10 +1017,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -963,7 +1029,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -974,16 +1040,166 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="11">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
